--- a/workspace/tests/files/invalid_config_no_base_portfolio.xlsx
+++ b/workspace/tests/files/invalid_config_no_base_portfolio.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Groupings" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Products and Perils" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Moody's Reference Data" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ExposureGroup &lt;-&gt; Portname" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,16 +26,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -53,13 +58,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +448,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Current Date Value</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>202503</t>
         </is>
@@ -589,17 +603,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Model Profiles</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Output Profiles</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Event Rate Schemes</t>
         </is>
@@ -951,6 +965,7 @@
           <t>DLM USHU_Full (85% SS) v23</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>2023 MTR Alt - Inactive Baseline</t>
@@ -963,6 +978,7 @@
           <t>DLM USHU_Full (85% SS) v25</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>2023 MTR Alt - Lower Bound</t>
@@ -975,6 +991,7 @@
           <t>DLM USHU_Leak (9% SS)</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>2023 MTR Alt - Upper Bound</t>
@@ -987,6 +1004,7 @@
           <t>DLM USHU_Leak (9% SS) v23</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>2025 MTR Alt - Active Baseline</t>
@@ -999,6 +1017,7 @@
           <t>DLM USHU_Leak (9% SS) v25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>2025 MTR Alt - Forecast SST</t>
@@ -1011,6 +1030,7 @@
           <t>DLM USST High Frq</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>2025 MTR Alt - Inactive Baseline</t>
@@ -1023,6 +1043,7 @@
           <t>DLM USST High Frq v23</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>2025 MTR Alt - Lower Bound</t>
@@ -1035,6 +1056,7 @@
           <t>DLM USST High and Low Frq v23 Tornado</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>2025 MTR Alt - Upper Bound</t>
@@ -1047,6 +1069,7 @@
           <t>DLM USST Low Frq</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>HailCalc Stochastic Event Rates</t>
@@ -1059,6 +1082,7 @@
           <t>DLM USST Low Frq v23</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>RMS 11.0 Stochastic Event Rates</t>
@@ -1071,6 +1095,7 @@
           <t>Demo NA HU WF HD Model</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>RMS 11.4 JP   Stochastic Event Rates</t>
@@ -1083,6 +1108,7 @@
           <t>Flood_SS65</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>RMS 11.4 JP  Long Term (Time-Independent) Rates</t>
@@ -1095,6 +1121,7 @@
           <t>HD USWF</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>RMS 17.0 AP Stochastic Event Rates</t>
@@ -1107,6 +1134,7 @@
           <t>HD USWF xConflagration</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>RMS 17.0 NA   Stochastic Event Rates</t>
@@ -1119,6 +1147,7 @@
           <t>IAN_MODEL_MISS_DLM_100SS</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>RMS 17.0 NA  Long Term (Time-Independent) Rates</t>
@@ -1131,6 +1160,7 @@
           <t>IAN_MODEL_MISS_DLM_100SS_v25</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>RMS 17.0 NA Atten Sensitivity for Higher than Avg Model (Time-Dependent Rates)</t>
@@ -1143,6 +1173,7 @@
           <t>MICHAEL_MODEL_MISS_DLM</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>RMS 17.0 NA Atten Sensitivity for Lower than Avg Model (Time-Dependent Rates)</t>
@@ -1155,6 +1186,7 @@
           <t>MICHAEL_MODEL_MISS_DLM_100SS</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>RMS 17.0 Stochastic Event Rates</t>
@@ -1167,6 +1199,7 @@
           <t>MICHAEL_MODEL_MISS_DLM_100SS_Only</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>RMS 18.0 AU Stochastic Event Rates</t>
@@ -1179,6 +1212,7 @@
           <t>MICHAEL_MODEL_MISS_DLM_Wind_Only</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>RMS 18.0 IN   Stochastic Event Rates</t>
@@ -1191,6 +1225,7 @@
           <t>Milton Ensemble CEP RL22 (Wind Only)</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>RMS 18.0 KR Long Term (Time-Independent) Rates</t>
@@ -1203,6 +1238,7 @@
           <t>RMS Default FCHLPM Certified Hurricane Losses 18.0</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>RMS 18.0 NA   Stochastic Event with Induced Seismicity (Time-Dependent Rates)</t>
@@ -1215,6 +1251,7 @@
           <t>RMS Default FCHLPM Certified Hurricane Losses 18.1 and 18.1.1</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>RMS 18.1  Stochastic Event Rates</t>
@@ -1227,6 +1264,7 @@
           <t>RMS Default FCHLPM Certified Hurricane Losses 21</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>RMS 18.1 Long Term (Time-Independent) Rates</t>
@@ -1239,6 +1277,7 @@
           <t>RMS Default FCHLPM Certified Hurricane Losses 22</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">RMS 18.1 Long Term (Time-Independent) Rates </t>
@@ -1251,6 +1290,7 @@
           <t>RMS Default FCHLPM Certified Hurricane Losses 23</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>RMS 18.1 Stochastic Event Rates</t>
@@ -1263,6 +1303,7 @@
           <t>RMS Default FCHLPM Certified Hurricane Losses 23 (Florida Only)</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>RMS 2011 Stochastic Event Rates</t>
@@ -1275,6 +1316,7 @@
           <t>RMS Default FCHLPM Certified Hurricane Losses 24 (Florida Only)</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>RMS 2013 Stochastic Event Rates</t>
@@ -1287,6 +1329,7 @@
           <t>RMS Default FCHLPM Certified Hurricane Losses 25 (Florida Only)</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>RMS 2015 25yr Climate Variability Event Rates</t>
@@ -1299,6 +1342,7 @@
           <t>USHU_Leak_CC_2</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>RMS 2015 Stochastic Event Rates</t>
@@ -1311,6 +1355,7 @@
           <t>USST High and Low Frq v23 Hail</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>RMS 2017 Historical Event Rates</t>
@@ -1323,6 +1368,7 @@
           <t>USST High and Low Frq v23 Wind</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>RMS 2017 Stochastic Event Rates</t>
@@ -1335,6 +1381,7 @@
           <t>HD USWF v2</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>RMS 2019 Historical Event Rates</t>
@@ -1342,6 +1389,8 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>RMS 2019 Stochastic Event Rates</t>
@@ -1349,6 +1398,8 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>RMS 2021 Historical Event Rates</t>
@@ -1356,6 +1407,8 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>RMS 2021 Stochastic Event Rates</t>
@@ -1363,6 +1416,8 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>RMS 2023 Historical Event Rates</t>
@@ -1370,6 +1425,8 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>RMS 2023 Stochastic Event Rates</t>
@@ -1377,6 +1434,8 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>RMS 2025 Historical Event Rates</t>
@@ -1384,6 +1443,8 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>RMS 2025 Stochastic Event Rates</t>
@@ -1391,6 +1452,8 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>RMS 22.0  Stochastic Event Rates</t>
@@ -1398,6 +1461,8 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>RMS 22.0 Long Term (Time-Independent) Rates</t>
@@ -1405,6 +1470,8 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>RMS 22.0 Stochastic Event Rates</t>
@@ -1412,6 +1479,8 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>RMS 24.0 Long Term (Time-Independent) Rates</t>
@@ -1419,6 +1488,8 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>RMS 24.0 Stochastic Event Rates</t>
@@ -1426,6 +1497,8 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>RMS 9.0 NA   Stochastic Event Rates</t>
@@ -1433,6 +1506,8 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>RMS 9.0 NA  Long Term (Time-Independent) Rates</t>
@@ -1440,6 +1515,8 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>RMS 9.0 NA Atten Sensitivity Boore&amp;Atkinson</t>
@@ -1447,6 +1524,8 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>RMS 9.0 NA Atten Sensitivity Campbell&amp;Bozorgnia</t>
@@ -1454,6 +1533,8 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>RMS 9.0 NA Atten Sensitivity Chiou&amp;Youngs</t>
@@ -1461,6 +1542,8 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>RMS 9.0 Stochastic Event Rates</t>
@@ -1468,6 +1551,8 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>RMS Stochastic (Cat) Event Rates</t>
@@ -1475,6 +1560,8 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>RMS Stochastic (Non-Cat) Event Rates</t>
@@ -1482,6 +1569,8 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>RMS Stochastic Event Rates</t>
@@ -1489,9 +1578,126 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>RMS Stochastic Event Set</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ExposureGroup</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Portname</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>USHU_Hurricane_Full</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>USHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>USEQ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>USEQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>USFL_Flood_Full</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>USFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CBHU_Hurricane_Full</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CBHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CBEQ_QuakeBC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CBEQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MEHU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MEHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PRHU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRHU</t>
         </is>
       </c>
     </row>
@@ -1515,12 +1721,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Case</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Count of Failures</t>
         </is>
@@ -1626,12 +1832,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Store in Data Bridge?</t>
         </is>
@@ -1741,22 +1947,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Portfolio</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Import File</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Base Portfolio?</t>
         </is>
@@ -3322,117 +3528,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Treaty Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Treaty Number</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Per-Risk Limit</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Occurrence Limit</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Attachment Point</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Inception Date</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Expiration Date</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Attachment Basis</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Exposure Level</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>% Covered</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>% Place</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>% Share</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>% Retention</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Premium</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Reinstatements</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>% Reinstatement Charge</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Aggregate Limit</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Aggregate Deductible Amount</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Inuring Priority</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Producer</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
@@ -3463,10 +3669,10 @@
       <c r="F2" t="n">
         <v>2000000</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>47848</v>
       </c>
       <c r="I2" t="inlineStr">
@@ -3514,6 +3720,8 @@
       <c r="U2" t="n">
         <v>1</v>
       </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3540,10 +3748,10 @@
       <c r="F3" t="n">
         <v>5000000</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>47848</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -3591,6 +3799,8 @@
       <c r="U3" t="n">
         <v>1</v>
       </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3617,10 +3827,10 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>47848</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -3668,6 +3878,8 @@
       <c r="U4" t="n">
         <v>1</v>
       </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3689,22 +3901,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Geocode Level</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Import File</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>% of Grand Total</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Threshold %</t>
         </is>
@@ -5899,7 +6111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P499"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5908,82 +6120,82 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Database</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Portfolio</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Analysis Name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Analysis Profile</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Output Profile</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Event Rate</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Reinsurance Treaty 1</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Reinsurance Treaty 2</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Reinsurance Treaty 3</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Reinsurance Treaty 4</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Reinsurance Treaty 5</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tag 1</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tag 2</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tag 3</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Tag 4</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tag 5</t>
         </is>
@@ -6030,11 +6242,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>202503_Quarterly_CBHU_LT</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6077,11 +6296,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>202503_Quarterly_CBHU_NT</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6124,11 +6350,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>202503_Quarterly_CBEQ</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6161,11 +6394,20 @@
           <t>RMS 17.0 NA   Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>202503_Quarterly_USEQ</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6198,11 +6440,20 @@
           <t>RMS 17.0 NA   Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>202503_Quarterly_USEQ</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6245,11 +6496,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>202503_Quarterly_USEQ</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6292,11 +6550,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>202503_Quarterly_USEQ</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6339,11 +6604,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>202503_Quarterly_USEQ</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6386,11 +6658,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>202503_Quarterly_USEQ</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6428,11 +6707,19 @@
           <t>Geico_2.075QS</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6475,11 +6762,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6512,11 +6806,20 @@
           <t>RMS 17.0 NA   Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6549,11 +6852,20 @@
           <t>RMS 17.0 NA   Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6596,11 +6908,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6643,11 +6962,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6690,11 +7016,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6737,11 +7070,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6784,11 +7124,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6831,11 +7178,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFF</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6878,11 +7232,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_LT</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6925,11 +7286,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_LT</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6972,11 +7340,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_LT</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7019,11 +7394,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_LT</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7066,11 +7448,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_LT</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7113,11 +7502,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_LT</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7155,11 +7551,19 @@
           <t>Geico_2.075QS</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7202,11 +7606,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7239,11 +7650,20 @@
           <t>RMS 2023 Historical Event Rates</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7276,11 +7696,20 @@
           <t>RMS 2023 Historical Event Rates</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7323,11 +7752,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7370,11 +7806,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7417,11 +7860,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7464,11 +7914,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7501,11 +7958,20 @@
           <t>RMS 2023 Historical Event Rates</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7538,11 +8004,20 @@
           <t>RMS 2023 Historical Event Rates</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7585,11 +8060,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7632,11 +8114,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7679,11 +8168,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7726,11 +8222,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7773,11 +8276,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7820,11 +8330,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_LT</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7857,11 +8374,20 @@
           <t>RMS 2013 Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7894,11 +8420,20 @@
           <t>RMS 2013 Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7941,11 +8476,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7988,11 +8530,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8035,11 +8584,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8082,11 +8638,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8129,11 +8692,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8171,11 +8741,19 @@
           <t>Geico_2.075QS</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8218,11 +8796,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8265,11 +8850,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8297,11 +8889,21 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8329,11 +8931,21 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8361,6 +8973,7 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>XPR_1_95</t>
@@ -8371,11 +8984,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8403,6 +9023,7 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>XPR_1_95</t>
@@ -8413,11 +9034,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8445,6 +9073,7 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>XPR_1_95</t>
@@ -8455,11 +9084,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8487,6 +9123,7 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
           <t>XPR_1_95</t>
@@ -8497,11 +9134,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8529,6 +9173,7 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>XPR_1_95</t>
@@ -8539,11 +9184,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8571,16 +9223,25 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>Geico_2.075QS</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8608,6 +9269,7 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>XPR_1_95</t>
@@ -8618,11 +9280,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8650,6 +9319,7 @@
           <t>Modeling_Output_Profile</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>XPR_1_95</t>
@@ -8660,11 +9330,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>202503_Quarterly_USWF</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8707,11 +9384,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_NT</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8754,11 +9438,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_NT</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8801,11 +9492,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_NT</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8848,11 +9546,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_NT</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8895,11 +9600,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_NT</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8942,11 +9654,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>202503_Quarterly_USFL_NT</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8984,11 +9703,19 @@
           <t>Geico_2.075QS</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9031,11 +9758,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9068,11 +9802,20 @@
           <t>RMS 2023 Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9105,11 +9848,20 @@
           <t>RMS 2023 Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9152,11 +9904,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9199,11 +9958,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9246,11 +10012,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9293,11 +10066,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9330,11 +10110,20 @@
           <t>RMS 2023 Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9367,11 +10156,20 @@
           <t>RMS 2023 Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9414,11 +10212,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9461,11 +10266,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9508,11 +10320,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9555,11 +10374,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9602,11 +10428,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9649,11 +10482,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>202503_Quarterly_USHU_NT</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9686,11 +10526,20 @@
           <t>RMS 2013 Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9723,11 +10572,20 @@
           <t>RMS 2013 Stochastic Event Rates</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9770,11 +10628,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9817,11 +10682,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9864,11 +10736,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9911,11 +10790,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9958,11 +10844,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10000,11 +10893,19 @@
           <t>Geico_2.075QS</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10047,11 +10948,18 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10094,417 +11002,19 @@
           <t>XPR_1_100</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>202503_Quarterly_USST</t>
         </is>
       </c>
-    </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10525,257 +11035,257 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Group_Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Item1</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Item2</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Item3</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Item4</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Item5</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Item6</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Item7</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Item8</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Item9</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Item10</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Item11</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Item12</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Item13</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Item14</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Item15</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Item16</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Item17</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Item18</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Item19</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Item20</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Item21</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Item22</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Item23</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Item24</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Item25</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Item26</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Item27</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Item28</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Item29</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Item30</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Item31</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Item32</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Item33</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Item34</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Item35</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Item36</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Item37</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Item38</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Item39</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Item40</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Item41</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Item42</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Item43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Item44</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Item45</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Item46</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Item47</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Item48</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Item49</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Item50</t>
         </is>
@@ -10797,6 +11307,54 @@
           <t>USST_Geico_75HIP2_Low_Frq</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10814,6 +11372,54 @@
           <t>USHU_Leak_Manufact_LT</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10831,6 +11437,54 @@
           <t>USHU_Leak_Manufact_NT</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10848,6 +11502,54 @@
           <t>USHU_Leak_Renters_LT</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10865,6 +11567,54 @@
           <t>USHU_Leak_Renters_NT</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10882,6 +11632,54 @@
           <t>USHU_Leak_Other_LT</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10899,6 +11697,54 @@
           <t>USHU_Leak_Other_NT</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10916,6 +11762,54 @@
           <t>USHU_Leak_Lender_P_LT</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10933,6 +11827,54 @@
           <t>USHU_Leak_Lender_P_NT</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -11000,6 +11942,44 @@
           <t>USHU_Leak_Lender_P_NT</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -11067,6 +12047,44 @@
           <t>USHU_Leak_Lender_P_LT</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11094,6 +12112,52 @@
           <t>USEQ_Manufactured</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11141,6 +12205,48 @@
           <t>USFF_Lender_P</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11188,6 +12294,48 @@
           <t>USWF_Lender_P</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11275,6 +12423,40 @@
           <t>USST_Lender_P_Low_Frq</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11322,6 +12504,48 @@
           <t>CBEQ</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11374,6 +12598,47 @@
           <t>CBEQ</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11411,6 +12676,50 @@
           <t>USST_Lender_P_Low_Frq</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11453,6 +12762,49 @@
           <t>USWF_Lender_P</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11485,6 +12837,51 @@
           <t>USWF_Geico_75HIP2</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11512,6 +12909,52 @@
           <t>USST_Geico_75HIP2_Low_Frq</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11549,6 +12992,50 @@
           <t>USWF_Condo</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11581,6 +13068,51 @@
           <t>USST_Condo_Low_Frq</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11613,6 +13145,51 @@
           <t>USWF_Geico_HIP1</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11640,6 +13217,52 @@
           <t>USST_Geico_HIP1_Low_Frq</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11687,6 +13310,48 @@
           <t>USWF_Renters</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11729,6 +13394,49 @@
           <t>USST_Renters_Low_Frq</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11766,6 +13474,50 @@
           <t>USWF_CHFS</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11798,6 +13550,51 @@
           <t>USST_CHFS_Low_Frq</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11845,6 +13642,48 @@
           <t>USWF_Manufactured</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11887,6 +13726,49 @@
           <t>USST_Manufactured_Low_Frq</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11929,6 +13811,49 @@
           <t>USWF_Other</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11966,6 +13891,50 @@
           <t>USST_Other_Low_Frq</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12013,6 +13982,48 @@
           <t>CBEQ</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12065,6 +14076,47 @@
           <t>CBEQ</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12102,6 +14154,50 @@
           <t>USST_Lender_P_Low_Frq</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12144,6 +14240,49 @@
           <t>USWF_Lender_P</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12176,6 +14315,51 @@
           <t>USWF_Geico_75HIP2</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12203,6 +14387,52 @@
           <t>USST_Geico_75HIP2_Low_Frq</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12235,6 +14465,51 @@
           <t>USST_Condo_Low_Frq</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12272,6 +14547,50 @@
           <t>USWF_Condo</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12304,6 +14623,51 @@
           <t>USWF_Geico_HIP1</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12331,6 +14695,52 @@
           <t>USST_Geico_HIP1_Low_Frq</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12378,6 +14788,48 @@
           <t>USWF_Renters</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12420,6 +14872,49 @@
           <t>USST_Renters_Low_Frq</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12457,6 +14952,50 @@
           <t>USWF_CHFS</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12489,6 +15028,51 @@
           <t>USST_CHFS_Low_Frq</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="inlineStr"/>
+      <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12536,6 +15120,48 @@
           <t>USWF_Manufactured</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12578,6 +15204,49 @@
           <t>USST_Manufactured_Low_Frq</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12620,6 +15289,49 @@
           <t>USWF_Other</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12657,6 +15369,50 @@
           <t>USST_Other_Low_Frq</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12684,6 +15440,52 @@
           <t>USHU_Leak_Clay_21st_LT</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12711,6 +15513,52 @@
           <t>USHU_Leak_Clay_21st_NT</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12728,6 +15576,54 @@
           <t>USHU_Leak_Clay_21st_LT</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12745,6 +15641,54 @@
           <t>USHU_Leak_Clay_21st_NT</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12762,6 +15706,54 @@
           <t>USHU_Leak_Clay_Homes_LT</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12779,6 +15771,54 @@
           <t>USHU_Leak_Clay_Homes_NT</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12856,6 +15896,42 @@
           <t>USWF_Clay_21st</t>
         </is>
       </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr"/>
+      <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12923,6 +15999,44 @@
           <t>USST_Clay_21st_Low_Frq</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12965,6 +16079,49 @@
           <t>USWF_Clay_21st</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13002,6 +16159,50 @@
           <t>USST_Clay_21st_Low_Frq</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13044,6 +16245,49 @@
           <t>USWF_Clay_Homes</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AU63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr"/>
+      <c r="AX63" t="inlineStr"/>
+      <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13081,6 +16325,50 @@
           <t>USST_Clay_Homes_Low_Frq</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13158,6 +16446,42 @@
           <t>USWF_Clay_21st</t>
         </is>
       </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13225,6 +16549,44 @@
           <t>USST_Clay_21st_Low_Frq</t>
         </is>
       </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AU66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13267,6 +16629,49 @@
           <t>USWF_Clay_21st</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13304,6 +16709,50 @@
           <t>USST_Clay_21st_Low_Frq</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AU68" t="inlineStr"/>
+      <c r="AV68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr"/>
+      <c r="AX68" t="inlineStr"/>
+      <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13346,6 +16795,49 @@
           <t>USWF_Clay_Homes</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
+      <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
+      <c r="AS69" t="inlineStr"/>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AU69" t="inlineStr"/>
+      <c r="AV69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr"/>
+      <c r="AX69" t="inlineStr"/>
+      <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13383,6 +16875,50 @@
           <t>USST_Clay_Homes_Low_Frq</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
+      <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
+      <c r="AS70" t="inlineStr"/>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AU70" t="inlineStr"/>
+      <c r="AV70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr"/>
+      <c r="AX70" t="inlineStr"/>
+      <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13400,6 +16936,54 @@
           <t>USFF_Clay_21st</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AU71" t="inlineStr"/>
+      <c r="AV71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13427,6 +17011,52 @@
           <t>USST_Clay_21st_Low_Frq</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
+      <c r="AS72" t="inlineStr"/>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AU72" t="inlineStr"/>
+      <c r="AV72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr"/>
+      <c r="AX72" t="inlineStr"/>
+      <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13444,6 +17074,54 @@
           <t>USEQ_Clay_Homes</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13461,6 +17139,54 @@
           <t>USWF_Clay_Homes</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
+      <c r="AO74" t="inlineStr"/>
+      <c r="AP74" t="inlineStr"/>
+      <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="inlineStr"/>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AU74" t="inlineStr"/>
+      <c r="AV74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr"/>
+      <c r="AX74" t="inlineStr"/>
+      <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13478,6 +17204,54 @@
           <t>USFL_Commercial_LT</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
+      <c r="AO75" t="inlineStr"/>
+      <c r="AP75" t="inlineStr"/>
+      <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="inlineStr"/>
+      <c r="AS75" t="inlineStr"/>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AU75" t="inlineStr"/>
+      <c r="AV75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr"/>
+      <c r="AX75" t="inlineStr"/>
+      <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13495,6 +17269,54 @@
           <t>USFL_Commercial_NT</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
+      <c r="AO76" t="inlineStr"/>
+      <c r="AP76" t="inlineStr"/>
+      <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="inlineStr"/>
+      <c r="AS76" t="inlineStr"/>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AU76" t="inlineStr"/>
+      <c r="AV76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr"/>
+      <c r="AX76" t="inlineStr"/>
+      <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13522,6 +17344,52 @@
           <t>USFL_Other_Lender_P_LT</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
+      <c r="AP77" t="inlineStr"/>
+      <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="inlineStr"/>
+      <c r="AS77" t="inlineStr"/>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AU77" t="inlineStr"/>
+      <c r="AV77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr"/>
+      <c r="AX77" t="inlineStr"/>
+      <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13549,6 +17417,52 @@
           <t>USFL_Other_Lender_P_NT</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
+      <c r="AP78" t="inlineStr"/>
+      <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="inlineStr"/>
+      <c r="AS78" t="inlineStr"/>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AU78" t="inlineStr"/>
+      <c r="AV78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr"/>
+      <c r="AX78" t="inlineStr"/>
+      <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13586,6 +17500,50 @@
           <t>USFL_Commercial_LT</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AU79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr"/>
+      <c r="AX79" t="inlineStr"/>
+      <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13623,6 +17581,50 @@
           <t>USFL_Commercial_NT</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
+      <c r="AO80" t="inlineStr"/>
+      <c r="AP80" t="inlineStr"/>
+      <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="inlineStr"/>
+      <c r="AS80" t="inlineStr"/>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AU80" t="inlineStr"/>
+      <c r="AV80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr"/>
+      <c r="AX80" t="inlineStr"/>
+      <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13640,6 +17642,54 @@
           <t>USST_Condo_Low_Frq</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
+      <c r="AO81" t="inlineStr"/>
+      <c r="AP81" t="inlineStr"/>
+      <c r="AQ81" t="inlineStr"/>
+      <c r="AR81" t="inlineStr"/>
+      <c r="AS81" t="inlineStr"/>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AU81" t="inlineStr"/>
+      <c r="AV81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr"/>
+      <c r="AX81" t="inlineStr"/>
+      <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13657,6 +17707,54 @@
           <t>USST_CHFS_Low_Frq</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
+      <c r="AO82" t="inlineStr"/>
+      <c r="AP82" t="inlineStr"/>
+      <c r="AQ82" t="inlineStr"/>
+      <c r="AR82" t="inlineStr"/>
+      <c r="AS82" t="inlineStr"/>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AU82" t="inlineStr"/>
+      <c r="AV82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr"/>
+      <c r="AX82" t="inlineStr"/>
+      <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13674,6 +17772,54 @@
           <t>USST_Manufactured_Low_Frq</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
+      <c r="AO83" t="inlineStr"/>
+      <c r="AP83" t="inlineStr"/>
+      <c r="AQ83" t="inlineStr"/>
+      <c r="AR83" t="inlineStr"/>
+      <c r="AS83" t="inlineStr"/>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AU83" t="inlineStr"/>
+      <c r="AV83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr"/>
+      <c r="AX83" t="inlineStr"/>
+      <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13691,6 +17837,54 @@
           <t>USST_Geico_HIP1_Low_Frq</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
+      <c r="AP84" t="inlineStr"/>
+      <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="inlineStr"/>
+      <c r="AS84" t="inlineStr"/>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AU84" t="inlineStr"/>
+      <c r="AV84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr"/>
+      <c r="AX84" t="inlineStr"/>
+      <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13708,6 +17902,54 @@
           <t>USST_Lender_P_Low_Frq</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
+      <c r="AO85" t="inlineStr"/>
+      <c r="AP85" t="inlineStr"/>
+      <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="inlineStr"/>
+      <c r="AS85" t="inlineStr"/>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AU85" t="inlineStr"/>
+      <c r="AV85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr"/>
+      <c r="AX85" t="inlineStr"/>
+      <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13725,6 +17967,54 @@
           <t>USST_Other_Low_Frq</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
+      <c r="AO86" t="inlineStr"/>
+      <c r="AP86" t="inlineStr"/>
+      <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="inlineStr"/>
+      <c r="AS86" t="inlineStr"/>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AU86" t="inlineStr"/>
+      <c r="AV86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr"/>
+      <c r="AX86" t="inlineStr"/>
+      <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -13742,6 +18032,54 @@
           <t>USST_Clay_Homes_Low_Frq</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
+      <c r="AO87" t="inlineStr"/>
+      <c r="AP87" t="inlineStr"/>
+      <c r="AQ87" t="inlineStr"/>
+      <c r="AR87" t="inlineStr"/>
+      <c r="AS87" t="inlineStr"/>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AU87" t="inlineStr"/>
+      <c r="AV87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr"/>
+      <c r="AX87" t="inlineStr"/>
+      <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13759,6 +18097,54 @@
           <t>USST_Clay_21st_Low_Frq</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
+      <c r="AO88" t="inlineStr"/>
+      <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="inlineStr"/>
+      <c r="AS88" t="inlineStr"/>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AU88" t="inlineStr"/>
+      <c r="AV88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr"/>
+      <c r="AX88" t="inlineStr"/>
+      <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -13776,6 +18162,54 @@
           <t>USST_Renters_Low_Frq</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
+      <c r="AO89" t="inlineStr"/>
+      <c r="AP89" t="inlineStr"/>
+      <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="inlineStr"/>
+      <c r="AS89" t="inlineStr"/>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AU89" t="inlineStr"/>
+      <c r="AV89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr"/>
+      <c r="AX89" t="inlineStr"/>
+      <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13823,6 +18257,48 @@
           <t>202503_USFL_LT_TotalFlood_Group</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
+      <c r="AO90" t="inlineStr"/>
+      <c r="AP90" t="inlineStr"/>
+      <c r="AQ90" t="inlineStr"/>
+      <c r="AR90" t="inlineStr"/>
+      <c r="AS90" t="inlineStr"/>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AU90" t="inlineStr"/>
+      <c r="AV90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr"/>
+      <c r="AX90" t="inlineStr"/>
+      <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -13865,6 +18341,49 @@
           <t>202503_USFL_LT_TotalFlood_Group</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
+      <c r="AO91" t="inlineStr"/>
+      <c r="AP91" t="inlineStr"/>
+      <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="inlineStr"/>
+      <c r="AS91" t="inlineStr"/>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AU91" t="inlineStr"/>
+      <c r="AV91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr"/>
+      <c r="AX91" t="inlineStr"/>
+      <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13912,6 +18431,48 @@
           <t>202503_USFL_NT_TotalFlood_Group</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
+      <c r="AO92" t="inlineStr"/>
+      <c r="AP92" t="inlineStr"/>
+      <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="inlineStr"/>
+      <c r="AS92" t="inlineStr"/>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AU92" t="inlineStr"/>
+      <c r="AV92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr"/>
+      <c r="AX92" t="inlineStr"/>
+      <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13954,6 +18515,49 @@
           <t>202503_USFL_NT_TotalFlood_Group</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
+      <c r="AO93" t="inlineStr"/>
+      <c r="AP93" t="inlineStr"/>
+      <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="inlineStr"/>
+      <c r="AS93" t="inlineStr"/>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AU93" t="inlineStr"/>
+      <c r="AV93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr"/>
+      <c r="AX93" t="inlineStr"/>
+      <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13991,6 +18595,50 @@
           <t>202503_USFL_LT_TotalFlood_Group</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
+      <c r="AO94" t="inlineStr"/>
+      <c r="AP94" t="inlineStr"/>
+      <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="inlineStr"/>
+      <c r="AS94" t="inlineStr"/>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AU94" t="inlineStr"/>
+      <c r="AV94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr"/>
+      <c r="AX94" t="inlineStr"/>
+      <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14023,6 +18671,51 @@
           <t>202503_USFL_LT_TotalFlood_Group</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
+      <c r="AO95" t="inlineStr"/>
+      <c r="AP95" t="inlineStr"/>
+      <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="inlineStr"/>
+      <c r="AS95" t="inlineStr"/>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AU95" t="inlineStr"/>
+      <c r="AV95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr"/>
+      <c r="AX95" t="inlineStr"/>
+      <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -14060,6 +18753,50 @@
           <t>202503_USFL_NT_TotalFlood_Group</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
+      <c r="AO96" t="inlineStr"/>
+      <c r="AP96" t="inlineStr"/>
+      <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="inlineStr"/>
+      <c r="AS96" t="inlineStr"/>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AU96" t="inlineStr"/>
+      <c r="AV96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr"/>
+      <c r="AX96" t="inlineStr"/>
+      <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14092,6 +18829,51 @@
           <t>202503_USFL_NT_TotalFlood_Group</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
+      <c r="AO97" t="inlineStr"/>
+      <c r="AP97" t="inlineStr"/>
+      <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="inlineStr"/>
+      <c r="AS97" t="inlineStr"/>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AU97" t="inlineStr"/>
+      <c r="AV97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr"/>
+      <c r="AX97" t="inlineStr"/>
+      <c r="AY97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14113,17 +18895,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Analysis Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Peril</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Product Group</t>
         </is>
@@ -14781,6 +19563,8 @@
           <t>USHU_Full_Clay_Homes_LT</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14788,6 +19572,8 @@
           <t>USHU_Full_Clay_21st_LT</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14795,6 +19581,8 @@
           <t>USHU_Full_Other_LT</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14802,6 +19590,8 @@
           <t>USHU_Full_Renters_LT</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14809,6 +19599,8 @@
           <t>USHU_Full_Manufact_LT</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14816,6 +19608,8 @@
           <t>USHU_Full_Lender_P_LT</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14823,6 +19617,8 @@
           <t>USHU_Leak_Clay_Homes_LT</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14830,6 +19626,8 @@
           <t>USHU_Leak_Clay_21st_LT</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14837,6 +19635,8 @@
           <t>USHU_Leak_Other_LT</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14878,6 +19678,8 @@
           <t>USHU_Leak_Renters_LT</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14885,6 +19687,8 @@
           <t>USHU_Leak_Manufact_LT</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14892,6 +19696,8 @@
           <t>USHU_Leak_Lender_P_LT</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14899,6 +19705,8 @@
           <t>USST_Clay_Homes_High_Frq</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14906,6 +19714,8 @@
           <t>USST_Clay_21st_High_Frq</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14913,6 +19723,8 @@
           <t>USST_Other_High_Frq</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14920,6 +19732,8 @@
           <t>USST_CHFS_High_Frq</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14927,6 +19741,8 @@
           <t>USST_Condo_High_Frq</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14934,6 +19750,8 @@
           <t>USST_Renters_High_Frq</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14941,6 +19759,8 @@
           <t>USST_Manufactured_High_Frq</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14948,6 +19768,8 @@
           <t>USST_Geico_75HIP2_High_Frq</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14955,6 +19777,8 @@
           <t>USST_Geico_HIP1_High_Frq</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14962,6 +19786,8 @@
           <t>USST_Lender_P_High_Frq</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15411,6 +20237,8 @@
           <t>USHU_Full_Clay_Homes_NT</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15418,6 +20246,8 @@
           <t>USHU_Full_Clay_21st_NT</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15425,6 +20255,8 @@
           <t>USHU_Full_Other_NT</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -15432,6 +20264,8 @@
           <t>USHU_Full_Renters_NT</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -15439,6 +20273,8 @@
           <t>USHU_Full_Manufact_NT</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -15446,6 +20282,8 @@
           <t>USHU_Full_Lender_P_NT</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -15453,6 +20291,8 @@
           <t>USHU_Leak_Clay_Homes_NT</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -15460,6 +20300,8 @@
           <t>USHU_Leak_Clay_21st_NT</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15467,6 +20309,8 @@
           <t>USHU_Leak_Other_NT</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15508,6 +20352,8 @@
           <t>USHU_Leak_Renters_NT</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -15515,6 +20361,8 @@
           <t>USHU_Leak_Manufact_NT</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -15522,6 +20370,8 @@
           <t>USHU_Leak_Lender_P_NT</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15529,6 +20379,8 @@
           <t>USST_Clay_Homes_Low_Frq</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -15536,6 +20388,8 @@
           <t>USST_Clay_21st_Low_Frq</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15543,6 +20397,8 @@
           <t>USST_Other_Low_Frq</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15550,6 +20406,8 @@
           <t>USST_CHFS_Low_Frq</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15557,6 +20415,8 @@
           <t>USST_Condo_Low_Frq</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15564,6 +20424,8 @@
           <t>USST_Renters_Low_Frq</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15571,6 +20433,8 @@
           <t>USST_Manufactured_Low_Frq</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15578,6 +20442,8 @@
           <t>USST_Geico_75HIP2_Low_Frq</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15585,6 +20451,8 @@
           <t>USST_Geico_HIP1_Low_Frq</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15592,6 +20460,8 @@
           <t>USST_Lender_P_Low_Frq</t>
         </is>
       </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
